--- a/InputFiles/TC02_Canine_Filter_SampleType-WholeBlood.xlsx
+++ b/InputFiles/TC02_Canine_Filter_SampleType-WholeBlood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\yes breed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC311DB-3C45-4440-B645-9C2493DF45E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8F077-7EEC-4CF0-874F-A384DDF4C0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -129,14 +129,12 @@
  MATCH (samp:sample)--&gt;(c) 
 WHERE samp.summarized_sample_type IN ["Whole Blood"] 
 WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`,
-        coalesce(f.file_type, '') AS `File Type`,
+RETURN coalesce(f.file_name, '') AS `File Name`, 
         coalesce(labels(parent)[0], '') AS `Association`,
         coalesce(f.file_description, '') AS `Description`,
         coalesce(f.file_format, '') AS `Format`,
         coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`,
-        coalesce(demo.breed,'') AS Breed , 
+        coalesce(c.case_id, '') AS `Case ID`, 
         coalesce(diag.disease_term,'') AS Diagnosis , 
         coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
@@ -511,7 +509,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/InputFiles/TC02_Canine_Filter_SampleType-WholeBlood.xlsx
+++ b/InputFiles/TC02_Canine_Filter_SampleType-WholeBlood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8F077-7EEC-4CF0-874F-A384DDF4C0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9276A8-9EBB-4FDE-8A32-82CBA4E587FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,40 @@
              count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
   <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+WHERE samp.summarized_sample_type IN ["Whole Blood"]  
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed , 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+ MATCH (samp:sample)--&gt;(c) 
+WHERE samp.summarized_sample_type IN ["Whole Blood"] 
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
 MATCH (c)&lt;--(diag:diagnosis)
 MATCH (samp:sample)--&gt;(c) 
@@ -101,42 +135,7 @@
         coalesce(demo.sex, '') AS Sex ,
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE samp.summarized_sample_type IN ["Whole Blood"]  
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c) 
-WHERE samp.summarized_sample_type IN ["Whole Blood"] 
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
 </sst>
 </file>
@@ -508,20 +507,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6328125" customWidth="1"/>
-    <col min="3" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -538,12 +537,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -555,12 +554,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -572,12 +571,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>

--- a/InputFiles/TC02_Canine_Filter_SampleType-WholeBlood.xlsx
+++ b/InputFiles/TC02_Canine_Filter_SampleType-WholeBlood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9276A8-9EBB-4FDE-8A32-82CBA4E587FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F71AE2-7F7F-4799-9673-170568F9184A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -69,22 +69,6 @@
     <t>TC02_Canine_Filter_SampleType-WholeBlood_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (s:study)
-  WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies
-  MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies
-  MATCH (d:diagnosis)
-  WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies
-  MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-  MATCH (samp:sample)-[*]-&gt;(c)
-  MATCH (f:file)-[*]-&gt;(c)
-  WHERE samp.summarized_sample_type IN ["Whole Blood"]  
-  WITH DISTINCT c AS c, p, s, demo, diag, f, samp
-  RETURN count(DISTINCT(f)) as number_of_files ,
-             count(DISTINCT(samp)) as number_of_sample ,
-             count(DISTINCT(c.case_id)) as number_of_cases ,
-             count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
 WHERE samp.summarized_sample_type IN ["Whole Blood"]  
 WITH DISTINCT samp AS samp, c, demo, diag
@@ -136,6 +120,54 @@
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
         coalesce(diag.best_response, '') AS `Response to Treatment`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MATCH (p:program)&lt;--(s:study)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+      WHERE (size([]) = 0 OR s.clinical_study_designation IN [])
+        AND (s.study_disposition = 'Unrestricted')
+        AND (size([]) = 0 OR s.clinical_study_type IN [])
+        AND (size([]) = 0 OR demo.breed IN [])
+        AND (size([]) = 0 OR demo.sex IN [])
+        AND (size([]) = 0 OR demo.neutered_indicator IN [])
+        AND (size([]) = 0 OR diag.disease_term IN [])
+        AND (size([]) = 0 OR diag.primary_disease_site IN [])
+        AND (size([]) = 0 OR diag.stage_of_disease IN [])
+        AND (size([]) = 0 OR diag.best_response IN [])
+    OPTIONAL MATCH (c)--&gt;(co:cohort)
+    OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+    OPTIONAL MATCH (f)--&gt;(parent)
+    OPTIONAL MATCH (samp:sample)--&gt;(c)
+    OPTIONAL MATCH (samp)&lt;--(al:aliquot)
+    WITH DISTINCT c AS c, p, s, co, demo, diag, f, parent, samp, al
+      WHERE (size(['Whole Blood']) = 0 OR samp.summarized_sample_type IN ['Whole Blood'])
+        AND (size([]) = 0 OR samp.specific_sample_pathology IN [])
+        AND (size([]) = 0 OR samp.sample_site IN [])
+        AND (size([]) = 0 OR head(labels(parent)) IN [])
+        AND (size([]) = 0 OR f.file_type IN [])
+        AND (size([]) = 0 OR f.file_format IN [])
+    WITH c.case_id AS case_id,
+         s.clinical_study_designation AS study_code,
+         s.clinical_study_type AS study_type,
+         co.cohort_description AS cohort,
+         demo.breed AS breed,
+         diag.disease_term AS diagnosis,
+         diag.stage_of_disease AS stage_of_disease,
+         diag.primary_disease_site AS disease_site,
+         demo.patient_age_at_enrollment AS age,
+         demo.sex AS sex,
+         demo.neutered_indicator AS neutered_status,
+         demo.weight AS weight,
+         diag.best_response AS response_to_treatment,
+         samp.sample_id AS sample_id,
+         f.uuid AS file_id,
+         al
+    RETURN
+COUNT(DISTINCT file_id) as number_of_files,
+COUNT(DISTINCT sample_id) as number_of_sample,
+COUNT(DISTINCT case_id) as number_of_cases,
+COUNT(DISTINCT study_code) as number_of_study,
+COUNT(DISTINCT al) as number_of_aliquot
+    </t>
   </si>
 </sst>
 </file>
@@ -507,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,15 +569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -554,15 +586,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -571,15 +603,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
